--- a/data_excel/915.xlsx
+++ b/data_excel/915.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>有</t>
   </si>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -723,15 +731,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
